--- a/docs/source/recursos/conservacion/tabla_def_con_10mzo21.xlsx
+++ b/docs/source/recursos/conservacion/tabla_def_con_10mzo21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\conservacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7A0CA-71A3-443A-98B2-F72CD341D69C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A59836-A025-4E2D-A381-C66E05ED4F42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2460" windowWidth="29040" windowHeight="15840" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
+    <workbookView xWindow="21795" yWindow="-1425" windowWidth="14985" windowHeight="15375" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
   </bookViews>
   <sheets>
     <sheet name="definiciones" sheetId="4" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Cobertura forestal</t>
   </si>
   <si>
-    <t>No. Taxones</t>
-  </si>
-  <si>
     <t>Zonas de recarga</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Captura de carbono</t>
+  </si>
+  <si>
+    <t>Riqueza forestal</t>
   </si>
 </sst>
 </file>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B64EF-2A17-4A78-9CAF-F88BE012DEF9}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="7"/>
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5">
         <v>0.39500000000000002</v>
@@ -791,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5">
         <v>0.35599999999999998</v>
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5">
         <v>0.185</v>
@@ -819,311 +819,295 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="5">
         <v>0.19800000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="15">
         <v>0.44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="5">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5">
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2"/>
-    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="5">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="5">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="15">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="B51" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C51" s="5">
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="5">
-        <v>0.223</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,8 +1117,8 @@
       <c r="B58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="15">
-        <v>0.21</v>
+      <c r="C58" s="5">
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,63 +1129,85 @@
         <v>60</v>
       </c>
       <c r="C59" s="5">
-        <v>0.16200000000000001</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C61" s="5">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="16">
         <v>0.127</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B67" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:C60">
-    <sortCondition descending="1" ref="C56:C60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C62">
+    <sortCondition descending="1" ref="C58:C62"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/source/recursos/conservacion/tabla_def_con_10mzo21.xlsx
+++ b/docs/source/recursos/conservacion/tabla_def_con_10mzo21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\conservacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A59836-A025-4E2D-A381-C66E05ED4F42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D846A-BCD5-4105-84A6-7CF13F35A0B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21795" yWindow="-1425" windowWidth="14985" windowHeight="15375" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
+    <workbookView xWindow="32235" yWindow="-2220" windowWidth="14985" windowHeight="15375" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
   </bookViews>
   <sheets>
     <sheet name="definiciones" sheetId="4" r:id="rId1"/>
@@ -119,15 +119,6 @@
     <t>Zonas de recarga</t>
   </si>
   <si>
-    <t>Tipo de cobertura como indicador de productivida primaria.</t>
-  </si>
-  <si>
-    <t>Tipo de cobertura forestal como indicador de productivida primaria.</t>
-  </si>
-  <si>
-    <t>Número de taxones como indicador de productivida primaria.</t>
-  </si>
-  <si>
     <t>Zonas de recarga de acuífero.</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>Biofísico y social</t>
   </si>
   <si>
-    <t>Concentración de especies melíferas como indicador del servicio ambiental de regulacion de polinización.</t>
-  </si>
-  <si>
     <t>Biofísicos y sociales</t>
   </si>
   <si>
@@ -203,21 +191,6 @@
     <t>Áreas de uso común</t>
   </si>
   <si>
-    <t>Áreas destinadas voluntariamente a la conservación.</t>
-  </si>
-  <si>
-    <t>Áreas naturales protegidas con enfoque biocultural</t>
-  </si>
-  <si>
-    <t>Pago por servicios ambientales</t>
-  </si>
-  <si>
-    <t>Unidades de manejo ambiental</t>
-  </si>
-  <si>
-    <t>Áreas ejidales de uso común</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cavidades que se forman de manera natural en la tierra o roca, por erosión que provoca la disolución de rocas calcáreas. </t>
   </si>
   <si>
@@ -231,6 +204,33 @@
   </si>
   <si>
     <t>Riqueza forestal</t>
+  </si>
+  <si>
+    <t>Número de taxones como indicador de productividad primaria.</t>
+  </si>
+  <si>
+    <t>Tipo de cobertura forestal como indicador de productividad primaria.</t>
+  </si>
+  <si>
+    <t>Tipo de cobertura como indicador de productividad primaria.</t>
+  </si>
+  <si>
+    <t>Concentración de especies melíferas como indicador del servicio ambiental de regulación de polinización.</t>
+  </si>
+  <si>
+    <t>Presencia de áreas naturales protegidas con enfoque biocultural</t>
+  </si>
+  <si>
+    <t>Presencia de Unidades de Manejo Ambiental (UMA)</t>
+  </si>
+  <si>
+    <t>Presencia de Áreas Destinadas Voluntariamente a la Conservación (ADVC).</t>
+  </si>
+  <si>
+    <t>Presencia de áreas ejidales de uso común.</t>
+  </si>
+  <si>
+    <t>Presencia de proyectos de pago por servicios ambientales.</t>
   </si>
 </sst>
 </file>
@@ -653,15 +653,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B64EF-2A17-4A78-9CAF-F88BE012DEF9}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" style="4" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="4"/>
   </cols>
@@ -697,7 +697,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="7"/>
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5">
         <v>0.39500000000000002</v>
@@ -791,18 +791,18 @@
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5">
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5">
         <v>0.185</v>
@@ -901,7 +901,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" s="15">
         <v>0.44</v>
@@ -912,7 +912,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C32" s="5">
         <v>0.32900000000000001</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C33" s="5">
         <v>0.14799999999999999</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5">
         <v>8.3000000000000004E-2</v>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5">
         <v>0.625</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5">
         <v>0.28100000000000003</v>
@@ -990,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C41" s="5">
         <v>9.4E-2</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C45" s="15">
         <v>0.75</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="15">
         <v>0.25</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,10 +1063,10 @@
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C51" s="5">
         <v>0.33300000000000002</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5">
         <v>0.33300000000000002</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C53" s="5">
         <v>0.33300000000000002</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,12 +1110,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C58" s="5">
         <v>0.27800000000000002</v>
@@ -1123,21 +1123,21 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C59" s="5">
         <v>0.223</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C60" s="15">
         <v>0.21</v>
@@ -1145,21 +1145,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C61" s="5">
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C62" s="16">
         <v>0.127</v>
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/source/recursos/conservacion/tabla_def_con_10mzo21.xlsx
+++ b/docs/source/recursos/conservacion/tabla_def_con_10mzo21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\conservacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D846A-BCD5-4105-84A6-7CF13F35A0B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BAE0A7-53C1-43FC-A2B1-C58046C09340}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32235" yWindow="-2220" windowWidth="14985" windowHeight="15375" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
   </bookViews>
   <sheets>
     <sheet name="definiciones" sheetId="4" r:id="rId1"/>
@@ -122,15 +122,9 @@
     <t>Zonas de recarga de acuífero.</t>
   </si>
   <si>
-    <t>Distancia a cenotes y lagunas costera</t>
-  </si>
-  <si>
     <t>Vegetación con posible uso o consumo, ya sea directamente o con previo procesamiento</t>
   </si>
   <si>
-    <t>Recursos genéticos</t>
-  </si>
-  <si>
     <t>Productos obtenidos de la naturaleza para su consumo o utilización, ya sea de manera directa o previo procesamiento, tales como: comida, agua dulce de consumo y uso agrícola; materias primas bióticas para tejidos, materiales de construcción, resinas; materiales geóticos (sal); combustibles renovables; recursos genéticos para agricultura, ganadería y biotecnología; recursos ornamentales, decoración, jardinería, etc; compuestos bioquímicos de distintos usos, recursos farmacológicos y medicinales, etc.</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>Biomasa aérea</t>
   </si>
   <si>
-    <t>Biomasa vegetal que sobresale del suelo</t>
-  </si>
-  <si>
     <t>Captura de carbono como indicador de calidad del aire.</t>
   </si>
   <si>
@@ -191,15 +182,9 @@
     <t>Áreas de uso común</t>
   </si>
   <si>
-    <t xml:space="preserve">Cavidades que se forman de manera natural en la tierra o roca, por erosión que provoca la disolución de rocas calcáreas. </t>
-  </si>
-  <si>
     <t>Porcentaje de la población municipal de 3 años y más que son mayahablantes.</t>
   </si>
   <si>
-    <t>Sitios con vestigios de civilizaciones o culturas antiguas.</t>
-  </si>
-  <si>
     <t>Captura de carbono</t>
   </si>
   <si>
@@ -212,15 +197,9 @@
     <t>Tipo de cobertura forestal como indicador de productividad primaria.</t>
   </si>
   <si>
-    <t>Tipo de cobertura como indicador de productividad primaria.</t>
-  </si>
-  <si>
     <t>Concentración de especies melíferas como indicador del servicio ambiental de regulación de polinización.</t>
   </si>
   <si>
-    <t>Presencia de áreas naturales protegidas con enfoque biocultural</t>
-  </si>
-  <si>
     <t>Presencia de Unidades de Manejo Ambiental (UMA)</t>
   </si>
   <si>
@@ -231,6 +210,27 @@
   </si>
   <si>
     <t>Presencia de proyectos de pago por servicios ambientales.</t>
+  </si>
+  <si>
+    <t>Biomasa vegetal arbórea</t>
+  </si>
+  <si>
+    <t>Tipo de vegetación como indicador de productividad primaria.</t>
+  </si>
+  <si>
+    <t>Presencia de cuerpos de agua no considerados en la capa de cobertura.</t>
+  </si>
+  <si>
+    <t>Frecuencia de las siete especies publicadas por CONABIO que se distribuyen potencialmente en menos del 50% del estado. A las áreas de distribución se le eliminaron las áreas de agricultura de riego, los asentamientos humanos y cuerpos de agua.</t>
+  </si>
+  <si>
+    <t>Presencia de áreas naturales protegidas con enfoque biocultural (Puuc, Kabáh y Tabí)</t>
+  </si>
+  <si>
+    <t>Presencia de cenotes y grutas (Cavidades que se forman de manera natural en la tierra o roca, por erosión que provoca la disolución de rocas calcáreas).</t>
+  </si>
+  <si>
+    <t>Presencia de sitios arqueológicos (lugares con vestigios de civilizaciones o culturas antiguas).</t>
   </si>
 </sst>
 </file>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B64EF-2A17-4A78-9CAF-F88BE012DEF9}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="7"/>
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5">
         <v>0.39500000000000002</v>
@@ -791,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5">
         <v>0.35599999999999998</v>
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5">
         <v>0.185</v>
@@ -912,7 +912,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="5">
         <v>0.32900000000000001</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" s="5">
         <v>0.14799999999999999</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C34" s="5">
         <v>8.3000000000000004E-2</v>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="5">
         <v>0.625</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5">
         <v>0.28100000000000003</v>
@@ -990,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5">
         <v>9.4E-2</v>
@@ -1000,214 +1000,260 @@
       <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="15">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="15">
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="15">
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0.33300000000000002</v>
-      </c>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="5">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C59" s="5">
-        <v>0.223</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="15">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C61" s="5">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="16">
-        <v>0.127</v>
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="15">
+        <v>0.26</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="16">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="15"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:C62">
-    <sortCondition descending="1" ref="C58:C62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A66:C70">
+    <sortCondition descending="1" ref="C66:C70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
